--- a/prototipos/DataInput/Relatório_Final.xlsx
+++ b/prototipos/DataInput/Relatório_Final.xlsx
@@ -661,7 +661,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I4" t="n">
         <v>612.63</v>
       </c>
@@ -717,7 +721,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I5" t="n">
         <v>127.34</v>
       </c>
@@ -773,7 +781,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Dívida Parcelada</t>
+        </is>
+      </c>
       <c r="I6" t="n">
         <v>578.3</v>
       </c>
@@ -1249,7 +1261,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I14" t="n">
         <v>298.44</v>
       </c>
@@ -1305,7 +1321,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I15" t="n">
         <v>80.3</v>
       </c>
@@ -1361,7 +1381,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I16" t="n">
         <v>298.42</v>
       </c>
@@ -1417,7 +1441,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I17" t="n">
         <v>79.79000000000001</v>
       </c>
@@ -1473,7 +1501,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I18" t="n">
         <v>298.43</v>
       </c>
@@ -1529,7 +1561,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I19" t="n">
         <v>141.21</v>
       </c>
@@ -1585,7 +1621,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I20" t="n">
         <v>298.44</v>
       </c>
@@ -1641,7 +1681,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I21" t="n">
         <v>69.42</v>
       </c>
@@ -1697,7 +1741,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I22" t="n">
         <v>359.09</v>
       </c>
@@ -1753,7 +1801,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I23" t="n">
         <v>81.17</v>
       </c>
@@ -1809,7 +1861,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I24" t="n">
         <v>359.1</v>
       </c>
@@ -1865,7 +1921,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I25" t="n">
         <v>81.56</v>
       </c>
@@ -1921,7 +1981,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I26" t="n">
         <v>516.23</v>
       </c>
@@ -1977,7 +2041,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I27" t="n">
         <v>90.17</v>
       </c>
@@ -2033,7 +2101,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I28" t="n">
         <v>516.24</v>
       </c>
@@ -2089,7 +2161,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I29" t="n">
         <v>85.15000000000001</v>
       </c>
@@ -2145,7 +2221,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I30" t="n">
         <v>45.89</v>
       </c>
@@ -2201,7 +2281,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I31" t="n">
         <v>714.24</v>
       </c>
@@ -2257,7 +2341,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I32" t="n">
         <v>33.5</v>
       </c>
@@ -2313,7 +2401,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I33" t="n">
         <v>714.24</v>
       </c>
@@ -2369,7 +2461,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I34" t="n">
         <v>260.45</v>
       </c>
@@ -2425,7 +2521,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I35" t="n">
         <v>71.25</v>
       </c>
@@ -2481,7 +2581,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I36" t="n">
         <v>264.76</v>
       </c>
@@ -2537,7 +2641,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I37" t="n">
         <v>71.59999999999999</v>
       </c>
@@ -2713,7 +2821,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I40" t="n">
         <v>333.97</v>
       </c>
@@ -2769,7 +2881,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I41" t="n">
         <v>43.25</v>
       </c>
@@ -3125,7 +3241,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I47" t="n">
         <v>149.29</v>
       </c>
@@ -3601,7 +3721,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I55" t="n">
         <v>812.35</v>
       </c>
@@ -3657,7 +3781,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I56" t="n">
         <v>130.61</v>
       </c>
@@ -3713,7 +3841,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I57" t="n">
         <v>829.08</v>
       </c>
@@ -3769,7 +3901,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I58" t="n">
         <v>118.28</v>
       </c>
@@ -3825,7 +3961,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I59" t="n">
         <v>497.44</v>
       </c>
@@ -3881,7 +4021,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I60" t="n">
         <v>135.39</v>
       </c>
@@ -3937,7 +4081,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I61" t="n">
         <v>812.34</v>
       </c>
@@ -3993,7 +4141,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I62" t="n">
         <v>137.41</v>
       </c>
@@ -4049,7 +4201,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I63" t="n">
         <v>812.34</v>
       </c>
@@ -4105,7 +4261,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I64" t="n">
         <v>138.08</v>
       </c>
@@ -4281,7 +4441,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I67" t="n">
         <v>415.77</v>
       </c>
@@ -4577,7 +4741,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I72" t="n">
         <v>474.78</v>
       </c>
@@ -4633,7 +4801,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I73" t="n">
         <v>148.27</v>
       </c>
@@ -4689,7 +4861,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I74" t="n">
         <v>1049.31</v>
       </c>
@@ -4745,7 +4921,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I75" t="n">
         <v>203.15</v>
       </c>
@@ -4801,7 +4981,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I76" t="n">
         <v>712.8200000000001</v>
       </c>
@@ -4857,7 +5041,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I77" t="n">
         <v>1425.65</v>
       </c>
@@ -4913,7 +5101,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I78" t="n">
         <v>173.73</v>
       </c>
@@ -4969,7 +5161,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I79" t="n">
         <v>33.5</v>
       </c>
@@ -5025,7 +5221,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I80" t="n">
         <v>857.12</v>
       </c>
@@ -5081,7 +5281,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I81" t="n">
         <v>40.72</v>
       </c>
@@ -5137,7 +5341,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I82" t="n">
         <v>857.11</v>
       </c>
@@ -5193,7 +5401,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I83" t="n">
         <v>40.82</v>
       </c>
@@ -5249,7 +5461,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I84" t="n">
         <v>857.11</v>
       </c>
@@ -5305,7 +5521,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I85" t="n">
         <v>474.79</v>
       </c>
@@ -5361,7 +5581,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I86" t="n">
         <v>84.31999999999999</v>
       </c>
@@ -5417,7 +5641,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I87" t="n">
         <v>474.78</v>
       </c>
@@ -5473,7 +5701,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I88" t="n">
         <v>83.77</v>
       </c>
@@ -5529,7 +5761,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I89" t="n">
         <v>573.28</v>
       </c>
@@ -5585,7 +5821,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I90" t="n">
         <v>103.67</v>
       </c>
@@ -5641,7 +5881,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I91" t="n">
         <v>524.65</v>
       </c>
@@ -5697,7 +5941,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I92" t="n">
         <v>349.77</v>
       </c>
@@ -5753,7 +6001,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I93" t="n">
         <v>214.77</v>
       </c>
@@ -6289,7 +6541,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I102" t="n">
         <v>242.76</v>
       </c>
@@ -6345,7 +6601,11 @@
           <t>07</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I103" t="n">
         <v>254.22</v>
       </c>
@@ -6401,7 +6661,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I104" t="n">
         <v>242.76</v>
       </c>
@@ -6457,7 +6721,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I105" t="n">
         <v>254.22</v>
       </c>
@@ -6513,7 +6781,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I106" t="n">
         <v>27.77</v>
       </c>
@@ -6569,7 +6841,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I107" t="n">
         <v>1276.14</v>
       </c>
@@ -6745,7 +7021,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I110" t="n">
         <v>542.38</v>
       </c>
@@ -6801,7 +7081,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I111" t="n">
         <v>68</v>
       </c>
@@ -6857,7 +7141,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I112" t="n">
         <v>542.39</v>
       </c>
@@ -6913,7 +7201,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I113" t="n">
         <v>64.20999999999999</v>
       </c>
@@ -7089,7 +7381,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I116" t="n">
         <v>31.01</v>
       </c>
@@ -7145,7 +7441,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I117" t="n">
         <v>1149.67</v>
       </c>
@@ -7201,7 +7501,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I118" t="n">
         <v>819.1</v>
       </c>
@@ -7257,7 +7561,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I119" t="n">
         <v>174.63</v>
       </c>
@@ -7313,7 +7621,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I120" t="n">
         <v>542.48</v>
       </c>
@@ -7369,7 +7681,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I121" t="n">
         <v>77.70999999999999</v>
       </c>
@@ -7545,7 +7861,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I124" t="n">
         <v>611.76</v>
       </c>
@@ -7601,7 +7921,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I125" t="n">
         <v>87.64</v>
       </c>
@@ -7777,7 +8101,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I128" t="n">
         <v>31.01</v>
       </c>
@@ -7833,7 +8161,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I129" t="n">
         <v>805.1</v>
       </c>
@@ -7889,7 +8221,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I130" t="n">
         <v>25.42</v>
       </c>
@@ -7945,7 +8281,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I131" t="n">
         <v>893.65</v>
       </c>
@@ -8001,7 +8341,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I132" t="n">
         <v>27.77</v>
       </c>
@@ -8057,7 +8401,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I133" t="n">
         <v>893.66</v>
       </c>
@@ -8233,7 +8581,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I136" t="n">
         <v>424.79</v>
       </c>
@@ -8289,7 +8641,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I137" t="n">
         <v>197.7</v>
       </c>
@@ -8345,7 +8701,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I138" t="n">
         <v>464.71</v>
       </c>
@@ -8401,7 +8761,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I139" t="n">
         <v>114.55</v>
       </c>
@@ -8457,7 +8821,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I140" t="n">
         <v>464.7</v>
       </c>
@@ -8513,7 +8881,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I141" t="n">
         <v>84.86</v>
       </c>
@@ -8569,7 +8941,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I142" t="n">
         <v>486.84</v>
       </c>
@@ -8625,7 +9001,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I143" t="n">
         <v>76.84999999999999</v>
       </c>
@@ -8681,7 +9061,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I144" t="n">
         <v>486.84</v>
       </c>
@@ -8737,7 +9121,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I145" t="n">
         <v>72.56999999999999</v>
       </c>
@@ -8793,7 +9181,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I146" t="n">
         <v>89.28</v>
       </c>
@@ -8849,7 +9241,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I147" t="n">
         <v>368.9</v>
       </c>
@@ -8905,7 +9301,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I148" t="n">
         <v>99.75</v>
       </c>
@@ -8961,7 +9361,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I149" t="n">
         <v>376.86</v>
       </c>
@@ -9017,7 +9421,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I150" t="n">
         <v>100.23</v>
       </c>
@@ -9073,7 +9481,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I151" t="n">
         <v>424.79</v>
       </c>
@@ -9129,7 +9541,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I152" t="n">
         <v>112.42</v>
       </c>
@@ -9185,7 +9601,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I153" t="n">
         <v>424.78</v>
       </c>
@@ -9241,7 +9661,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I154" t="n">
         <v>111.7</v>
       </c>
@@ -9297,7 +9721,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I155" t="n">
         <v>464.7</v>
       </c>
@@ -9353,7 +9781,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I156" t="n">
         <v>89.28</v>
       </c>
@@ -9409,7 +9841,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr"/>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I157" t="n">
         <v>464.7</v>
       </c>
@@ -9465,7 +9901,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr"/>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I158" t="n">
         <v>89.70999999999999</v>
       </c>
@@ -9641,7 +10081,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr"/>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I161" t="n">
         <v>569.39</v>
       </c>
@@ -9697,7 +10141,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr"/>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I162" t="n">
         <v>68.19</v>
       </c>
@@ -9753,7 +10201,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr"/>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I163" t="n">
         <v>580.45</v>
       </c>
@@ -9809,7 +10261,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I164" t="n">
         <v>61.76</v>
       </c>
@@ -9865,7 +10321,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I165" t="n">
         <v>580.45</v>
       </c>
@@ -9921,7 +10381,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr"/>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I166" t="n">
         <v>58.32</v>
       </c>
@@ -10097,7 +10561,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I169" t="n">
         <v>539.09</v>
       </c>
@@ -10153,7 +10621,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I170" t="n">
         <v>58.32</v>
       </c>
@@ -10329,7 +10801,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I173" t="n">
         <v>539.09</v>
       </c>
@@ -10385,7 +10861,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I174" t="n">
         <v>58.32</v>
       </c>
@@ -10561,7 +11041,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I177" t="n">
         <v>204</v>
       </c>
@@ -10857,7 +11341,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I182" t="n">
         <v>465.07</v>
       </c>
@@ -10913,7 +11401,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I183" t="n">
         <v>52.29</v>
       </c>
@@ -10969,7 +11461,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I184" t="n">
         <v>493.49</v>
       </c>
@@ -11025,7 +11521,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I185" t="n">
         <v>47.35</v>
       </c>
@@ -11081,7 +11581,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I186" t="n">
         <v>493.49</v>
       </c>
@@ -11137,7 +11641,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I187" t="n">
         <v>44.72</v>
       </c>
@@ -11313,7 +11821,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I190" t="n">
         <v>204</v>
       </c>
@@ -11369,7 +11881,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Dívida Parcelada</t>
+        </is>
+      </c>
       <c r="I191" t="n">
         <v>874.12</v>
       </c>
@@ -11545,7 +12061,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I194" t="n">
         <v>25.42</v>
       </c>
@@ -11601,7 +12121,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I195" t="n">
         <v>1120.05</v>
       </c>
@@ -11657,7 +12181,11 @@
           <t>07</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I196" t="n">
         <v>267.75</v>
       </c>
@@ -11713,7 +12241,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I197" t="n">
         <v>255.68</v>
       </c>
@@ -11769,7 +12301,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr"/>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I198" t="n">
         <v>27.77</v>
       </c>
@@ -11825,7 +12361,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr"/>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I199" t="n">
         <v>1120.04</v>
       </c>
@@ -12061,7 +12601,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I203" t="n">
         <v>201.73</v>
       </c>
@@ -12117,7 +12661,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I204" t="n">
         <v>201.73</v>
       </c>
@@ -12293,7 +12841,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I207" t="n">
         <v>547.46</v>
       </c>
@@ -12349,7 +12901,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I208" t="n">
         <v>92.43000000000001</v>
       </c>
@@ -12405,7 +12961,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I209" t="n">
         <v>547.46</v>
       </c>
@@ -12461,7 +13021,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I210" t="n">
         <v>87.43000000000001</v>
       </c>
@@ -12517,7 +13081,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I211" t="n">
         <v>569.67</v>
       </c>
@@ -12573,7 +13141,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I212" t="n">
         <v>79.18000000000001</v>
       </c>
@@ -13169,7 +13741,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I222" t="n">
         <v>491.64</v>
       </c>
@@ -13225,7 +13801,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I223" t="n">
         <v>89.43000000000001</v>
       </c>
@@ -13281,7 +13861,11 @@
           <t>04</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I224" t="n">
         <v>573.64</v>
       </c>
@@ -13577,7 +14161,11 @@
           <t>07</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I229" t="n">
         <v>201.06</v>
       </c>
@@ -13633,7 +14221,11 @@
           <t>10</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I230" t="n">
         <v>201.06</v>
       </c>
@@ -13689,7 +14281,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I231" t="n">
         <v>213.63</v>
       </c>
@@ -13745,7 +14341,11 @@
           <t>07</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I232" t="n">
         <v>213.63</v>
       </c>
@@ -13801,7 +14401,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr"/>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I233" t="n">
         <v>204</v>
       </c>
@@ -14217,7 +14821,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr"/>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I240" t="n">
         <v>364.58</v>
       </c>
@@ -14273,7 +14881,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I241" t="n">
         <v>46.91</v>
       </c>
@@ -14449,7 +15061,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr"/>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I244" t="n">
         <v>213.63</v>
       </c>
@@ -14505,7 +15121,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I245" t="n">
         <v>204</v>
       </c>
@@ -14681,7 +15301,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr"/>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I248" t="n">
         <v>204</v>
       </c>
@@ -14737,7 +15361,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr"/>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I249" t="n">
         <v>213.63</v>
       </c>
@@ -14913,7 +15541,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr"/>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I252" t="n">
         <v>204</v>
       </c>
@@ -14969,7 +15601,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr"/>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I253" t="n">
         <v>213.63</v>
       </c>
@@ -15145,7 +15781,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr"/>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I256" t="n">
         <v>204</v>
       </c>
@@ -15201,7 +15841,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr"/>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I257" t="n">
         <v>213.63</v>
       </c>
@@ -15377,7 +16021,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I260" t="n">
         <v>213.63</v>
       </c>
@@ -15433,7 +16081,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr"/>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I261" t="n">
         <v>204</v>
       </c>
@@ -15489,7 +16141,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr"/>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I262" t="n">
         <v>204</v>
       </c>
@@ -16025,7 +16681,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I271" t="n">
         <v>25.42</v>
       </c>
@@ -16081,7 +16741,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr"/>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I272" t="n">
         <v>1276.14</v>
       </c>
@@ -16137,7 +16801,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I273" t="n">
         <v>27.77</v>
       </c>
@@ -16193,7 +16861,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr"/>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I274" t="n">
         <v>1276.14</v>
       </c>
@@ -16249,7 +16921,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I275" t="n">
         <v>53.22</v>
       </c>
@@ -16305,7 +16981,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I276" t="n">
         <v>1149.68</v>
       </c>
@@ -16481,7 +17161,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I279" t="n">
         <v>254.22</v>
       </c>
@@ -16657,7 +17341,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr"/>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I282" t="n">
         <v>31.01</v>
       </c>
@@ -16713,7 +17401,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr"/>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I283" t="n">
         <v>1076.14</v>
       </c>
@@ -16769,7 +17461,11 @@
           <t>09</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr"/>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I284" t="n">
         <v>268.75</v>
       </c>
@@ -16825,7 +17521,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr"/>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I285" t="n">
         <v>25.42</v>
       </c>
@@ -16881,7 +17581,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr"/>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I286" t="n">
         <v>1194.52</v>
       </c>
@@ -16937,7 +17641,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr"/>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I287" t="n">
         <v>285.55</v>
       </c>
@@ -16993,7 +17701,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr"/>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I288" t="n">
         <v>272.68</v>
       </c>
@@ -17049,7 +17761,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr"/>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I289" t="n">
         <v>27.77</v>
       </c>
@@ -17105,7 +17821,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr"/>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I290" t="n">
         <v>1194.52</v>
       </c>
@@ -17281,7 +18001,11 @@
           <t>07</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr"/>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I293" t="n">
         <v>213.63</v>
       </c>
@@ -17337,7 +18061,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr"/>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I294" t="n">
         <v>204</v>
       </c>
@@ -17513,7 +18241,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr"/>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I297" t="n">
         <v>213.63</v>
       </c>
@@ -17569,7 +18301,11 @@
           <t>12</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr"/>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I298" t="n">
         <v>204</v>
       </c>
@@ -17625,7 +18361,11 @@
           <t>07</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr"/>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I299" t="n">
         <v>213.63</v>
       </c>
@@ -17861,7 +18601,11 @@
           <t>09</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr"/>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I303" t="n">
         <v>201.06</v>
       </c>
@@ -17917,7 +18661,11 @@
           <t>07</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr"/>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I304" t="n">
         <v>201.06</v>
       </c>
@@ -17973,7 +18721,11 @@
           <t>06</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr"/>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I305" t="n">
         <v>155.48</v>
       </c>
@@ -18029,7 +18781,11 @@
           <t>06</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr"/>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I306" t="n">
         <v>155.51</v>
       </c>
@@ -18085,7 +18841,11 @@
           <t>07</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr"/>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I307" t="n">
         <v>213.63</v>
       </c>
@@ -18141,7 +18901,11 @@
           <t>02</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr"/>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I308" t="n">
         <v>213.63</v>
       </c>
@@ -18197,7 +18961,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I309" t="n">
         <v>27.77</v>
       </c>
@@ -18253,7 +19021,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr"/>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I310" t="n">
         <v>893.66</v>
       </c>
@@ -18789,7 +19561,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr"/>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I319" t="n">
         <v>416.83</v>
       </c>
@@ -18845,7 +19621,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr"/>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I320" t="n">
         <v>91.75</v>
       </c>
@@ -18901,7 +19681,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr"/>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I321" t="n">
         <v>277.89</v>
       </c>
@@ -18957,7 +19741,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr"/>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I322" t="n">
         <v>416.83</v>
       </c>
@@ -19013,7 +19801,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr"/>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I323" t="n">
         <v>59.15</v>
       </c>
@@ -19069,7 +19861,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr"/>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I324" t="n">
         <v>431.59</v>
       </c>
@@ -19125,7 +19921,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr"/>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I325" t="n">
         <v>53.56</v>
       </c>
@@ -19181,7 +19981,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr"/>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I326" t="n">
         <v>431.59</v>
       </c>
@@ -19237,7 +20041,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr"/>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I327" t="n">
         <v>50.58</v>
       </c>
@@ -19293,7 +20101,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr"/>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I328" t="n">
         <v>416.83</v>
       </c>
@@ -19349,7 +20161,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I329" t="n">
         <v>79.84</v>
       </c>
@@ -19405,7 +20221,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr"/>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I330" t="n">
         <v>416.83</v>
       </c>
@@ -19461,7 +20281,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr"/>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I331" t="n">
         <v>62.23</v>
       </c>
@@ -19517,7 +20341,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr"/>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I332" t="n">
         <v>416.83</v>
       </c>
@@ -19573,7 +20401,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr"/>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I333" t="n">
         <v>62.53</v>
       </c>
@@ -20049,7 +20881,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr"/>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I341" t="n">
         <v>31.01</v>
       </c>
@@ -20105,7 +20941,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr"/>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I342" t="n">
         <v>805.1</v>
       </c>
@@ -20161,7 +21001,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr"/>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I343" t="n">
         <v>25.42</v>
       </c>
@@ -20217,7 +21061,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr"/>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I344" t="n">
         <v>893.65</v>
       </c>
@@ -20273,7 +21121,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr"/>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I345" t="n">
         <v>27.77</v>
       </c>
@@ -20329,7 +21181,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr"/>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I346" t="n">
         <v>893.66</v>
       </c>
@@ -20385,7 +21241,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr"/>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I347" t="n">
         <v>91.20999999999999</v>
       </c>
@@ -20441,7 +21301,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr"/>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I348" t="n">
         <v>805.09</v>
       </c>
@@ -20497,7 +21361,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr"/>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I349" t="n">
         <v>68.73</v>
       </c>
@@ -20553,7 +21421,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr"/>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I350" t="n">
         <v>805.1</v>
       </c>
@@ -20609,7 +21481,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr"/>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I351" t="n">
         <v>53.22</v>
       </c>
@@ -20665,7 +21541,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr"/>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I352" t="n">
         <v>805.1</v>
       </c>
@@ -20721,7 +21601,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr"/>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I353" t="n">
         <v>37.72</v>
       </c>
@@ -20777,7 +21661,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr"/>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I354" t="n">
         <v>805.1</v>
       </c>
@@ -20833,7 +21721,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr"/>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I355" t="n">
         <v>34</v>
       </c>
@@ -20889,7 +21781,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr"/>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Ajuizada</t>
+        </is>
+      </c>
       <c r="I356" t="n">
         <v>805.09</v>
       </c>
@@ -21185,7 +22081,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr"/>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I361" t="n">
         <v>34</v>
       </c>
@@ -21241,7 +22141,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr"/>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I362" t="n">
         <v>805.09</v>
       </c>
@@ -21297,7 +22201,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr"/>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I363" t="n">
         <v>31.01</v>
       </c>
@@ -21353,7 +22261,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr"/>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I364" t="n">
         <v>805.1</v>
       </c>
@@ -21409,7 +22321,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr"/>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I365" t="n">
         <v>25.42</v>
       </c>
@@ -21465,7 +22381,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr"/>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I366" t="n">
         <v>893.65</v>
       </c>
@@ -21521,7 +22441,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr"/>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I367" t="n">
         <v>27.77</v>
       </c>
@@ -21577,7 +22501,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr"/>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I368" t="n">
         <v>893.66</v>
       </c>
@@ -21753,7 +22681,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr"/>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I371" t="n">
         <v>31.01</v>
       </c>
@@ -21809,7 +22741,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr"/>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I372" t="n">
         <v>805.1</v>
       </c>
@@ -21865,7 +22801,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr"/>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I373" t="n">
         <v>25.42</v>
       </c>
@@ -21921,7 +22861,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr"/>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I374" t="n">
         <v>893.65</v>
       </c>
@@ -21977,7 +22921,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr"/>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I375" t="n">
         <v>27.77</v>
       </c>
@@ -22033,7 +22981,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr"/>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I376" t="n">
         <v>893.66</v>
       </c>
@@ -22209,7 +23161,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr"/>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I379" t="n">
         <v>27.77</v>
       </c>
@@ -22265,7 +23221,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr"/>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I380" t="n">
         <v>893.66</v>
       </c>
@@ -22441,7 +23401,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr"/>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I383" t="n">
         <v>31.01</v>
       </c>
@@ -22497,7 +23461,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr"/>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I384" t="n">
         <v>805.1</v>
       </c>
@@ -22553,7 +23521,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr"/>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I385" t="n">
         <v>25.42</v>
       </c>
@@ -22609,7 +23581,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr"/>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I386" t="n">
         <v>893.65</v>
       </c>
@@ -22665,7 +23641,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr"/>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I387" t="n">
         <v>27.77</v>
       </c>
@@ -22721,7 +23701,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr"/>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I388" t="n">
         <v>893.66</v>
       </c>
@@ -23377,7 +24361,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr"/>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I399" t="n">
         <v>25.42</v>
       </c>
@@ -23433,7 +24421,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr"/>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I400" t="n">
         <v>1319.04</v>
       </c>
@@ -23489,7 +24481,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr"/>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I401" t="n">
         <v>27.77</v>
       </c>
@@ -23545,7 +24541,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr"/>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I402" t="n">
         <v>1319.03</v>
       </c>
@@ -23721,7 +24721,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr"/>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I405" t="n">
         <v>25.42</v>
       </c>
@@ -23777,7 +24781,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr"/>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I406" t="n">
         <v>1319.04</v>
       </c>
@@ -23833,7 +24841,11 @@
           <t>07</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr"/>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I407" t="n">
         <v>262.76</v>
       </c>
@@ -23889,7 +24901,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr"/>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I408" t="n">
         <v>27.77</v>
       </c>
@@ -23945,7 +24961,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr"/>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I409" t="n">
         <v>1319.03</v>
       </c>
@@ -24121,7 +25141,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr"/>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I412" t="n">
         <v>25.42</v>
       </c>
@@ -24177,7 +25201,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr"/>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I413" t="n">
         <v>893.65</v>
       </c>
@@ -24233,7 +25261,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr"/>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I414" t="n">
         <v>27.77</v>
       </c>
@@ -24289,7 +25321,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr"/>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I415" t="n">
         <v>893.66</v>
       </c>
@@ -24465,7 +25501,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr"/>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I418" t="n">
         <v>34</v>
       </c>
@@ -24521,7 +25561,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr"/>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I419" t="n">
         <v>805.09</v>
       </c>
@@ -24577,7 +25621,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr"/>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I420" t="n">
         <v>25.42</v>
       </c>
@@ -24633,7 +25681,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr"/>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I421" t="n">
         <v>893.65</v>
       </c>
@@ -24689,7 +25741,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr"/>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I422" t="n">
         <v>27.77</v>
       </c>
@@ -24745,7 +25801,11 @@
           <t>01</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr"/>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>Dívida Ativa</t>
+        </is>
+      </c>
       <c r="I423" t="n">
         <v>893.66</v>
       </c>
